--- a/data/welchListMotifsMetrics.xlsx
+++ b/data/welchListMotifsMetrics.xlsx
@@ -19,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>motif name</t>
-  </si>
-  <si>
-    <t>accuracy</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Sensitivity</t>
   </si>
@@ -69,16 +63,28 @@
     <t xml:space="preserve">DME_AWMTBAGAGA </t>
   </si>
   <si>
-    <t>false N</t>
-  </si>
-  <si>
-    <t>true N</t>
-  </si>
-  <si>
-    <t>false P</t>
-  </si>
-  <si>
-    <t>true P</t>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>TP + FN</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Motif name</t>
+  </si>
+  <si>
+    <t>Logo</t>
   </si>
 </sst>
 </file>
@@ -610,7 +616,10 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -634,17 +643,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H13" totalsRowShown="0">
-  <autoFilter ref="A1:H13"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="motif name"/>
-    <tableColumn id="2" name="true P"/>
-    <tableColumn id="3" name="false P"/>
-    <tableColumn id="4" name="true N"/>
-    <tableColumn id="5" name="false N"/>
-    <tableColumn id="6" name="accuracy" dataDxfId="2"/>
-    <tableColumn id="7" name="Sensitivity" dataDxfId="1"/>
-    <tableColumn id="8" name="Specificity" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J13" totalsRowShown="0">
+  <autoFilter ref="A1:J13"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Motif name"/>
+    <tableColumn id="2" name="TP"/>
+    <tableColumn id="3" name="FP"/>
+    <tableColumn id="4" name="TN"/>
+    <tableColumn id="5" name="FN"/>
+    <tableColumn id="6" name="Accuracy" dataDxfId="3"/>
+    <tableColumn id="7" name="Sensitivity" dataDxfId="2"/>
+    <tableColumn id="8" name="Specificity" dataDxfId="1"/>
+    <tableColumn id="10" name="Logo" dataDxfId="0"/>
+    <tableColumn id="9" name="TP + FN"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -947,53 +958,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I13" sqref="A1:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.08984375" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -1005,7 +1023,7 @@
         <v>122</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1">
         <v>0.91034482758620605</v>
@@ -1016,10 +1034,14 @@
       <c r="H2" s="1">
         <v>0.92424242424242398</v>
       </c>
+      <c r="I2" s="1"/>
+      <c r="J2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -1031,7 +1053,7 @@
         <v>125</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>0.944827586206896</v>
@@ -1042,10 +1064,14 @@
       <c r="H3" s="1">
         <v>0.94696969696969702</v>
       </c>
+      <c r="I3" s="1"/>
+      <c r="J3">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -1057,7 +1083,7 @@
         <v>121</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1">
         <v>0.89655172413793105</v>
@@ -1068,10 +1094,14 @@
       <c r="H4" s="1">
         <v>0.91666666666666596</v>
       </c>
+      <c r="I4" s="1"/>
+      <c r="J4">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -1083,7 +1113,7 @@
         <v>112</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
         <v>0.84827586206896499</v>
@@ -1094,10 +1124,14 @@
       <c r="H5" s="1">
         <v>0.84848484848484795</v>
       </c>
+      <c r="I5" s="1"/>
+      <c r="J5">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -1109,7 +1143,7 @@
         <v>118</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
         <v>0.89655172413793105</v>
@@ -1120,10 +1154,14 @@
       <c r="H6" s="1">
         <v>0.89393939393939303</v>
       </c>
+      <c r="I6" s="1"/>
+      <c r="J6">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>9</v>
@@ -1135,7 +1173,7 @@
         <v>119</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1">
         <v>0.88275862068965505</v>
@@ -1146,10 +1184,14 @@
       <c r="H7" s="1">
         <v>0.90151515151515105</v>
       </c>
+      <c r="I7" s="1"/>
+      <c r="J7">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>12</v>
@@ -1161,7 +1203,7 @@
         <v>125</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
         <v>0.944827586206896</v>
@@ -1172,10 +1214,14 @@
       <c r="H8" s="1">
         <v>0.94696969696969702</v>
       </c>
+      <c r="I8" s="1"/>
+      <c r="J8">
+        <v>13</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -1187,7 +1233,7 @@
         <v>116</v>
       </c>
       <c r="E9">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1">
         <v>0.86206896551724099</v>
@@ -1198,10 +1244,14 @@
       <c r="H9" s="1">
         <v>0.87878787878787801</v>
       </c>
+      <c r="I9" s="1"/>
+      <c r="J9">
+        <v>13</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>11</v>
@@ -1213,7 +1263,7 @@
         <v>114</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1">
         <v>0.86206896551724099</v>
@@ -1224,10 +1274,14 @@
       <c r="H10" s="1">
         <v>0.86363636363636298</v>
       </c>
+      <c r="I10" s="1"/>
+      <c r="J10">
+        <v>13</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1239,7 +1293,7 @@
         <v>113</v>
       </c>
       <c r="E11">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1">
         <v>0.84827586206896499</v>
@@ -1250,10 +1304,14 @@
       <c r="H11" s="1">
         <v>0.85606060606060597</v>
       </c>
+      <c r="I11" s="1"/>
+      <c r="J11">
+        <v>13</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>9</v>
@@ -1265,7 +1323,7 @@
         <v>116</v>
       </c>
       <c r="E12">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F12" s="1">
         <v>0.86206896551724099</v>
@@ -1276,10 +1334,14 @@
       <c r="H12" s="1">
         <v>0.87878787878787801</v>
       </c>
+      <c r="I12" s="1"/>
+      <c r="J12">
+        <v>13</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>9</v>
@@ -1291,7 +1353,7 @@
         <v>115</v>
       </c>
       <c r="E13">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F13" s="1">
         <v>0.85517241379310305</v>
@@ -1302,9 +1364,10 @@
       <c r="H13" s="1">
         <v>0.87121212121212099</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F14" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
